--- a/final excel files/Final Formated Excel File.xlsx
+++ b/final excel files/Final Formated Excel File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Employee Department Change\final excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E52813-8E98-4D00-81D6-9CB22D9250BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290DF005-8381-4323-8BBE-284FD028423B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
